--- a/NRI_STLF_Data/WeatherData/T_sanandaj/T_sanandaj89.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_sanandaj/T_sanandaj89.xlsx
@@ -49,11 +49,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -384,13 +384,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="F340" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="I314" sqref="I314"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>89</v>
       </c>
@@ -467,7 +467,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>89</v>
       </c>
@@ -532,7 +532,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>89</v>
       </c>
@@ -609,7 +609,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>89</v>
       </c>
@@ -689,7 +689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>89</v>
       </c>
@@ -766,7 +766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>89</v>
       </c>
@@ -843,7 +843,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>89</v>
       </c>
@@ -923,7 +923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>89</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>89</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>89</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>89</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>89</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>89</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>89</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>89</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>89</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>89</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>89</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>89</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>89</v>
       </c>
@@ -1872,6 +1872,15 @@
       <c r="E20">
         <v>1</v>
       </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
       <c r="X20">
         <v>0</v>
       </c>
@@ -1879,7 +1888,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>89</v>
       </c>
@@ -1956,7 +1965,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>89</v>
       </c>
@@ -2033,7 +2042,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>89</v>
       </c>
@@ -2110,7 +2119,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>89</v>
       </c>
@@ -2190,7 +2199,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>89</v>
       </c>
@@ -2267,7 +2276,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>89</v>
       </c>
@@ -2344,7 +2353,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>89</v>
       </c>
@@ -2421,7 +2430,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>89</v>
       </c>
@@ -2498,7 +2507,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>89</v>
       </c>
@@ -2578,7 +2587,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>89</v>
       </c>
@@ -2655,7 +2664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>89</v>
       </c>
@@ -2732,7 +2741,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>89</v>
       </c>
@@ -2809,7 +2818,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>89</v>
       </c>
@@ -2886,7 +2895,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>89</v>
       </c>
@@ -2966,7 +2975,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>89</v>
       </c>
@@ -3046,7 +3055,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>89</v>
       </c>
@@ -3123,7 +3132,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>89</v>
       </c>
@@ -3200,7 +3209,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>89</v>
       </c>
@@ -3277,7 +3286,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>89</v>
       </c>
@@ -3357,7 +3366,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>89</v>
       </c>
@@ -3437,7 +3446,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>89</v>
       </c>
@@ -3514,7 +3523,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>89</v>
       </c>
@@ -3594,7 +3603,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>89</v>
       </c>
@@ -3674,7 +3683,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>89</v>
       </c>
@@ -3751,7 +3760,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>89</v>
       </c>
@@ -3828,7 +3837,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>89</v>
       </c>
@@ -3905,7 +3914,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>89</v>
       </c>
@@ -3982,7 +3991,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>89</v>
       </c>
@@ -4062,7 +4071,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>89</v>
       </c>
@@ -4139,7 +4148,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>89</v>
       </c>
@@ -4216,7 +4225,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>89</v>
       </c>
@@ -4293,7 +4302,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>89</v>
       </c>
@@ -4370,7 +4379,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>89</v>
       </c>
@@ -4450,7 +4459,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>89</v>
       </c>
@@ -4527,7 +4536,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>89</v>
       </c>
@@ -4607,7 +4616,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>89</v>
       </c>
@@ -4687,7 +4696,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>89</v>
       </c>
@@ -4764,7 +4773,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>89</v>
       </c>
@@ -4841,7 +4850,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>89</v>
       </c>
@@ -4918,7 +4927,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>89</v>
       </c>
@@ -4934,6 +4943,15 @@
       <c r="E60">
         <v>1</v>
       </c>
+      <c r="F60">
+        <v>28</v>
+      </c>
+      <c r="G60">
+        <v>22</v>
+      </c>
+      <c r="H60">
+        <v>17</v>
+      </c>
       <c r="X60">
         <v>0</v>
       </c>
@@ -4941,7 +4959,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>89</v>
       </c>
@@ -4957,6 +4975,15 @@
       <c r="E61">
         <v>1</v>
       </c>
+      <c r="F61">
+        <v>28</v>
+      </c>
+      <c r="G61">
+        <v>24</v>
+      </c>
+      <c r="H61">
+        <v>21</v>
+      </c>
       <c r="X61">
         <v>0</v>
       </c>
@@ -4964,7 +4991,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>89</v>
       </c>
@@ -4980,6 +5007,15 @@
       <c r="E62">
         <v>1</v>
       </c>
+      <c r="F62">
+        <v>27</v>
+      </c>
+      <c r="G62">
+        <v>25</v>
+      </c>
+      <c r="H62">
+        <v>24</v>
+      </c>
       <c r="X62">
         <v>0</v>
       </c>
@@ -4987,7 +5023,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>89</v>
       </c>
@@ -5052,7 +5088,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>89</v>
       </c>
@@ -5129,7 +5165,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>89</v>
       </c>
@@ -5206,7 +5242,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>89</v>
       </c>
@@ -5283,7 +5319,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>89</v>
       </c>
@@ -5348,7 +5384,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>89</v>
       </c>
@@ -5413,7 +5449,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>89</v>
       </c>
@@ -5490,7 +5526,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>89</v>
       </c>
@@ -5567,7 +5603,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>89</v>
       </c>
@@ -5644,7 +5680,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>89</v>
       </c>
@@ -5721,7 +5757,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>89</v>
       </c>
@@ -5798,7 +5834,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>89</v>
       </c>
@@ -5875,7 +5911,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>89</v>
       </c>
@@ -5952,7 +5988,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>89</v>
       </c>
@@ -6029,7 +6065,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>89</v>
       </c>
@@ -6109,7 +6145,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>89</v>
       </c>
@@ -6186,7 +6222,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>89</v>
       </c>
@@ -6263,7 +6299,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>89</v>
       </c>
@@ -6340,7 +6376,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>89</v>
       </c>
@@ -6417,7 +6453,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>89</v>
       </c>
@@ -6494,7 +6530,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>89</v>
       </c>
@@ -6571,7 +6607,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>89</v>
       </c>
@@ -6648,7 +6684,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>89</v>
       </c>
@@ -6713,7 +6749,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>89</v>
       </c>
@@ -6790,7 +6826,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>89</v>
       </c>
@@ -6867,7 +6903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>89</v>
       </c>
@@ -6944,7 +6980,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>89</v>
       </c>
@@ -7021,7 +7057,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7098,7 +7134,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7175,7 +7211,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>89</v>
       </c>
@@ -7252,7 +7288,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>89</v>
       </c>
@@ -7329,7 +7365,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>89</v>
       </c>
@@ -7406,7 +7442,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>89</v>
       </c>
@@ -7483,7 +7519,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>89</v>
       </c>
@@ -7560,7 +7596,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>89</v>
       </c>
@@ -7637,7 +7673,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>89</v>
       </c>
@@ -7702,7 +7738,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>89</v>
       </c>
@@ -7767,7 +7803,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>89</v>
       </c>
@@ -7832,7 +7868,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>89</v>
       </c>
@@ -7897,7 +7933,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>89</v>
       </c>
@@ -7962,7 +7998,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>89</v>
       </c>
@@ -8027,7 +8063,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>89</v>
       </c>
@@ -8092,7 +8128,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>89</v>
       </c>
@@ -8157,7 +8193,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>89</v>
       </c>
@@ -8222,7 +8258,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>89</v>
       </c>
@@ -8299,7 +8335,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>89</v>
       </c>
@@ -8376,7 +8412,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>89</v>
       </c>
@@ -8453,7 +8489,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>89</v>
       </c>
@@ -8530,7 +8566,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>89</v>
       </c>
@@ -8607,7 +8643,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>89</v>
       </c>
@@ -8672,7 +8708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>89</v>
       </c>
@@ -8737,7 +8773,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>89</v>
       </c>
@@ -8814,7 +8850,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>89</v>
       </c>
@@ -8879,7 +8915,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>89</v>
       </c>
@@ -8944,7 +8980,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>89</v>
       </c>
@@ -9021,7 +9057,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>89</v>
       </c>
@@ -9098,7 +9134,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>89</v>
       </c>
@@ -9163,7 +9199,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>89</v>
       </c>
@@ -9228,7 +9264,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>89</v>
       </c>
@@ -9293,7 +9329,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>89</v>
       </c>
@@ -9370,7 +9406,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>89</v>
       </c>
@@ -9447,7 +9483,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>89</v>
       </c>
@@ -9524,7 +9560,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>89</v>
       </c>
@@ -9601,7 +9637,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>89</v>
       </c>
@@ -9678,7 +9714,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>89</v>
       </c>
@@ -9755,7 +9791,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>89</v>
       </c>
@@ -9832,7 +9868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>89</v>
       </c>
@@ -9909,7 +9945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:27">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>89</v>
       </c>
@@ -9986,7 +10022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>89</v>
       </c>
@@ -10063,7 +10099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>89</v>
       </c>
@@ -10140,7 +10176,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="133" spans="1:27">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>89</v>
       </c>
@@ -10217,7 +10253,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>89</v>
       </c>
@@ -10294,7 +10330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:27">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>89</v>
       </c>
@@ -10371,7 +10407,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="136" spans="1:27">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>89</v>
       </c>
@@ -10448,7 +10484,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="137" spans="1:27">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>89</v>
       </c>
@@ -10525,7 +10561,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="138" spans="1:27">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>89</v>
       </c>
@@ -10602,7 +10638,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="139" spans="1:27">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>89</v>
       </c>
@@ -10679,7 +10715,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="140" spans="1:27">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>89</v>
       </c>
@@ -10756,7 +10792,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="141" spans="1:27">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>89</v>
       </c>
@@ -10833,7 +10869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:27">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>89</v>
       </c>
@@ -10910,7 +10946,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="143" spans="1:27">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>89</v>
       </c>
@@ -10987,7 +11023,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="144" spans="1:27">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>89</v>
       </c>
@@ -11064,7 +11100,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:27">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>89</v>
       </c>
@@ -11141,7 +11177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:27">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>89</v>
       </c>
@@ -11218,7 +11254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:27">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>89</v>
       </c>
@@ -11295,7 +11331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:27">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>89</v>
       </c>
@@ -11372,7 +11408,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="149" spans="1:27">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>89</v>
       </c>
@@ -11449,7 +11485,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="150" spans="1:27">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>89</v>
       </c>
@@ -11526,7 +11562,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="151" spans="1:27">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>89</v>
       </c>
@@ -11603,7 +11639,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="1:27">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>89</v>
       </c>
@@ -11668,7 +11704,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:27">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>89</v>
       </c>
@@ -11733,7 +11769,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="154" spans="1:27">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>89</v>
       </c>
@@ -11810,7 +11846,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="155" spans="1:27">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>89</v>
       </c>
@@ -11887,7 +11923,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="156" spans="1:27">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>89</v>
       </c>
@@ -11964,7 +12000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:27">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>89</v>
       </c>
@@ -12041,7 +12077,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="158" spans="1:27">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>89</v>
       </c>
@@ -12118,7 +12154,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="159" spans="1:27">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>89</v>
       </c>
@@ -12195,7 +12231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:27">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>89</v>
       </c>
@@ -12272,7 +12308,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="161" spans="1:27">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>89</v>
       </c>
@@ -12349,7 +12385,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="162" spans="1:27">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>89</v>
       </c>
@@ -12426,7 +12462,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:27">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>89</v>
       </c>
@@ -12503,7 +12539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:27">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>89</v>
       </c>
@@ -12580,7 +12616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:27">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>89</v>
       </c>
@@ -12657,7 +12693,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="166" spans="1:27">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>89</v>
       </c>
@@ -12734,7 +12770,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="167" spans="1:27">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>89</v>
       </c>
@@ -12811,7 +12847,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="168" spans="1:27">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>89</v>
       </c>
@@ -12888,7 +12924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:27">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>89</v>
       </c>
@@ -12953,7 +12989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:27">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>89</v>
       </c>
@@ -13030,7 +13066,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="171" spans="1:27">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>89</v>
       </c>
@@ -13107,7 +13143,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="172" spans="1:27">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>89</v>
       </c>
@@ -13184,7 +13220,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:27">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>89</v>
       </c>
@@ -13261,7 +13297,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="174" spans="1:27">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>89</v>
       </c>
@@ -13338,7 +13374,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="175" spans="1:27">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>89</v>
       </c>
@@ -13403,7 +13439,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="176" spans="1:27">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>89</v>
       </c>
@@ -13480,7 +13516,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="177" spans="1:27">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>89</v>
       </c>
@@ -13545,7 +13581,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="178" spans="1:27">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>89</v>
       </c>
@@ -13622,7 +13658,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="179" spans="1:27">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>89</v>
       </c>
@@ -13687,7 +13723,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="180" spans="1:27">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>89</v>
       </c>
@@ -13752,7 +13788,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="181" spans="1:27">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>89</v>
       </c>
@@ -13817,7 +13853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:27">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>89</v>
       </c>
@@ -13894,7 +13930,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="183" spans="1:27">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>89</v>
       </c>
@@ -13974,7 +14010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:27">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>89</v>
       </c>
@@ -14051,7 +14087,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="185" spans="1:27">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>89</v>
       </c>
@@ -14128,7 +14164,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="186" spans="1:27">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>89</v>
       </c>
@@ -14205,7 +14241,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="187" spans="1:27">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>89</v>
       </c>
@@ -14282,7 +14318,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="188" spans="1:27">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>89</v>
       </c>
@@ -14347,7 +14383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:27">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>89</v>
       </c>
@@ -14412,7 +14448,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="190" spans="1:27">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>89</v>
       </c>
@@ -14489,7 +14525,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="191" spans="1:27">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>89</v>
       </c>
@@ -14566,7 +14602,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="192" spans="1:27">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>89</v>
       </c>
@@ -14643,7 +14679,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="193" spans="1:27">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>89</v>
       </c>
@@ -14720,7 +14756,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="194" spans="1:27">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>89</v>
       </c>
@@ -14797,7 +14833,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="195" spans="1:27">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>89</v>
       </c>
@@ -14874,7 +14910,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="196" spans="1:27">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>89</v>
       </c>
@@ -14951,7 +14987,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="197" spans="1:27">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>89</v>
       </c>
@@ -15028,7 +15064,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="198" spans="1:27">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>89</v>
       </c>
@@ -15105,7 +15141,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="199" spans="1:27">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>89</v>
       </c>
@@ -15182,7 +15218,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="200" spans="1:27">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>89</v>
       </c>
@@ -15259,7 +15295,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="201" spans="1:27">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>89</v>
       </c>
@@ -15336,7 +15372,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="202" spans="1:27">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>89</v>
       </c>
@@ -15413,7 +15449,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="203" spans="1:27">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>89</v>
       </c>
@@ -15490,7 +15526,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="204" spans="1:27">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>89</v>
       </c>
@@ -15567,7 +15603,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="205" spans="1:27">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>89</v>
       </c>
@@ -15647,7 +15683,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="206" spans="1:27">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>89</v>
       </c>
@@ -15724,7 +15760,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="207" spans="1:27">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>89</v>
       </c>
@@ -15789,7 +15825,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="208" spans="1:27">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>89</v>
       </c>
@@ -15854,7 +15890,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="209" spans="1:27">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>89</v>
       </c>
@@ -15931,7 +15967,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="210" spans="1:27">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>89</v>
       </c>
@@ -16008,7 +16044,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="211" spans="1:27">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>89</v>
       </c>
@@ -16085,7 +16121,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="212" spans="1:27">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>89</v>
       </c>
@@ -16162,7 +16198,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="213" spans="1:27">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>89</v>
       </c>
@@ -16239,7 +16275,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="214" spans="1:27">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>89</v>
       </c>
@@ -16304,7 +16340,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="215" spans="1:27">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>89</v>
       </c>
@@ -16369,7 +16405,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="216" spans="1:27">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>89</v>
       </c>
@@ -16434,7 +16470,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="217" spans="1:27">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>89</v>
       </c>
@@ -16499,7 +16535,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="218" spans="1:27">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>89</v>
       </c>
@@ -16576,7 +16612,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="219" spans="1:27">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>89</v>
       </c>
@@ -16641,7 +16677,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="220" spans="1:27">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>89</v>
       </c>
@@ -16718,7 +16754,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="221" spans="1:27">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>89</v>
       </c>
@@ -16795,7 +16831,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="222" spans="1:27">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>89</v>
       </c>
@@ -16872,7 +16908,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="223" spans="1:27">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>89</v>
       </c>
@@ -16937,7 +16973,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="224" spans="1:27">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>89</v>
       </c>
@@ -17014,7 +17050,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="225" spans="1:27">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>89</v>
       </c>
@@ -17091,7 +17127,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="226" spans="1:27">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>89</v>
       </c>
@@ -17171,7 +17207,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="227" spans="1:27">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>89</v>
       </c>
@@ -17251,7 +17287,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="228" spans="1:27">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>89</v>
       </c>
@@ -17331,7 +17367,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="229" spans="1:27">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>89</v>
       </c>
@@ -17408,7 +17444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:27">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>89</v>
       </c>
@@ -17485,7 +17521,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="231" spans="1:27">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>89</v>
       </c>
@@ -17562,7 +17598,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="232" spans="1:27">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>89</v>
       </c>
@@ -17639,7 +17675,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="233" spans="1:27">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>89</v>
       </c>
@@ -17716,7 +17752,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="234" spans="1:27">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>89</v>
       </c>
@@ -17793,7 +17829,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:27">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>89</v>
       </c>
@@ -17870,7 +17906,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="236" spans="1:27">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>89</v>
       </c>
@@ -17935,7 +17971,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="237" spans="1:27">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>89</v>
       </c>
@@ -18000,7 +18036,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="238" spans="1:27">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>89</v>
       </c>
@@ -18077,7 +18113,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="1:27">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>89</v>
       </c>
@@ -18142,7 +18178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:27">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>89</v>
       </c>
@@ -18207,7 +18243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>89</v>
       </c>
@@ -18272,7 +18308,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="242" spans="1:27">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>89</v>
       </c>
@@ -18337,7 +18373,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="243" spans="1:27">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>89</v>
       </c>
@@ -18402,7 +18438,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="244" spans="1:27">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>89</v>
       </c>
@@ -18467,7 +18503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:27">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>89</v>
       </c>
@@ -18532,7 +18568,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="246" spans="1:27">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>89</v>
       </c>
@@ -18609,7 +18645,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="247" spans="1:27">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>89</v>
       </c>
@@ -18686,7 +18722,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="248" spans="1:27">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>89</v>
       </c>
@@ -18763,7 +18799,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="249" spans="1:27">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>89</v>
       </c>
@@ -18828,7 +18864,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="250" spans="1:27">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>89</v>
       </c>
@@ -18893,7 +18929,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="251" spans="1:27">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>89</v>
       </c>
@@ -18958,7 +18994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:27">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>89</v>
       </c>
@@ -19023,7 +19059,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="253" spans="1:27">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>89</v>
       </c>
@@ -19088,7 +19124,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="254" spans="1:27">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>89</v>
       </c>
@@ -19153,7 +19189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:27">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>89</v>
       </c>
@@ -19218,7 +19254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:27">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>89</v>
       </c>
@@ -19283,7 +19319,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="257" spans="1:27">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>89</v>
       </c>
@@ -19348,7 +19384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:27">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>89</v>
       </c>
@@ -19413,7 +19449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:27">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>89</v>
       </c>
@@ -19478,7 +19514,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="260" spans="1:27">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>89</v>
       </c>
@@ -19555,7 +19591,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="261" spans="1:27">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>89</v>
       </c>
@@ -19620,7 +19656,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="262" spans="1:27">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>89</v>
       </c>
@@ -19697,7 +19733,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="263" spans="1:27">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>89</v>
       </c>
@@ -19762,7 +19798,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="264" spans="1:27">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>89</v>
       </c>
@@ -19827,7 +19863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:27">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>89</v>
       </c>
@@ -19904,7 +19940,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="266" spans="1:27">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>89</v>
       </c>
@@ -19984,7 +20020,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="267" spans="1:27">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>89</v>
       </c>
@@ -20064,7 +20100,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="268" spans="1:27">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>89</v>
       </c>
@@ -20144,7 +20180,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="269" spans="1:27">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>89</v>
       </c>
@@ -20224,7 +20260,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="270" spans="1:27">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>89</v>
       </c>
@@ -20301,7 +20337,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="271" spans="1:27">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>89</v>
       </c>
@@ -20366,7 +20402,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="272" spans="1:27">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>89</v>
       </c>
@@ -20440,7 +20476,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="273" spans="1:27">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>89</v>
       </c>
@@ -20520,7 +20556,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="274" spans="1:27">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>89</v>
       </c>
@@ -20600,7 +20636,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="275" spans="1:27">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>89</v>
       </c>
@@ -20677,7 +20713,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="276" spans="1:27">
+    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>89</v>
       </c>
@@ -20757,7 +20793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="277" spans="1:27">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>89</v>
       </c>
@@ -20834,7 +20870,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="278" spans="1:27">
+    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>89</v>
       </c>
@@ -20911,7 +20947,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="279" spans="1:27">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>89</v>
       </c>
@@ -20988,7 +21024,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="280" spans="1:27">
+    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>89</v>
       </c>
@@ -21065,7 +21101,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="281" spans="1:27">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>89</v>
       </c>
@@ -21142,7 +21178,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="282" spans="1:27">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>89</v>
       </c>
@@ -21219,7 +21255,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="283" spans="1:27">
+    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>89</v>
       </c>
@@ -21284,7 +21320,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="284" spans="1:27">
+    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>89</v>
       </c>
@@ -21349,7 +21385,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="285" spans="1:27">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>89</v>
       </c>
@@ -21414,7 +21450,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="286" spans="1:27">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>89</v>
       </c>
@@ -21494,7 +21530,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="287" spans="1:27">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>89</v>
       </c>
@@ -21574,7 +21610,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="288" spans="1:27">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>89</v>
       </c>
@@ -21651,7 +21687,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="289" spans="1:27">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>89</v>
       </c>
@@ -21716,7 +21752,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="290" spans="1:27">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>89</v>
       </c>
@@ -21796,7 +21832,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="291" spans="1:27">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>89</v>
       </c>
@@ -21876,7 +21912,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="292" spans="1:27">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>89</v>
       </c>
@@ -21953,7 +21989,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="293" spans="1:27">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>89</v>
       </c>
@@ -22030,7 +22066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="1:27">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>89</v>
       </c>
@@ -22110,7 +22146,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="295" spans="1:27">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>89</v>
       </c>
@@ -22190,7 +22226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:27">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>89</v>
       </c>
@@ -22270,7 +22306,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="297" spans="1:27">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>89</v>
       </c>
@@ -22350,7 +22386,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="298" spans="1:27">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>89</v>
       </c>
@@ -22430,7 +22466,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="299" spans="1:27">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>89</v>
       </c>
@@ -22507,7 +22543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:27">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>89</v>
       </c>
@@ -22587,7 +22623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" spans="1:27">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>89</v>
       </c>
@@ -22667,7 +22703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:27">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>89</v>
       </c>
@@ -22747,7 +22783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="303" spans="1:27">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>89</v>
       </c>
@@ -22824,7 +22860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:27">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>89</v>
       </c>
@@ -22904,7 +22940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" spans="1:27">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>89</v>
       </c>
@@ -22984,7 +23020,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="306" spans="1:27">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>89</v>
       </c>
@@ -23064,7 +23100,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="307" spans="1:27">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>89</v>
       </c>
@@ -23144,7 +23180,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="308" spans="1:27">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>89</v>
       </c>
@@ -23224,7 +23260,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="309" spans="1:27">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>89</v>
       </c>
@@ -23304,7 +23340,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="310" spans="1:27">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>89</v>
       </c>
@@ -23384,7 +23420,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="311" spans="1:27">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>89</v>
       </c>
@@ -23461,7 +23497,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="312" spans="1:27">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>89</v>
       </c>
@@ -23541,7 +23577,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="313" spans="1:27">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>89</v>
       </c>
@@ -23557,6 +23593,15 @@
       <c r="E313">
         <v>1</v>
       </c>
+      <c r="F313">
+        <v>4</v>
+      </c>
+      <c r="G313">
+        <v>1</v>
+      </c>
+      <c r="H313">
+        <v>-1</v>
+      </c>
       <c r="X313">
         <v>0</v>
       </c>
@@ -23564,7 +23609,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="314" spans="1:27">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>89</v>
       </c>
@@ -23580,6 +23625,15 @@
       <c r="E314">
         <v>1</v>
       </c>
+      <c r="F314">
+        <v>5</v>
+      </c>
+      <c r="G314">
+        <v>1</v>
+      </c>
+      <c r="H314">
+        <v>-2</v>
+      </c>
       <c r="X314">
         <v>0</v>
       </c>
@@ -23587,7 +23641,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="315" spans="1:27">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>89</v>
       </c>
@@ -23667,7 +23721,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="316" spans="1:27">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>89</v>
       </c>
@@ -23747,7 +23801,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="317" spans="1:27">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>89</v>
       </c>
@@ -23827,7 +23881,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="318" spans="1:27">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>89</v>
       </c>
@@ -23907,7 +23961,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="319" spans="1:27">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>89</v>
       </c>
@@ -23987,7 +24041,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="320" spans="1:27">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>89</v>
       </c>
@@ -24067,7 +24121,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="321" spans="1:27">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>89</v>
       </c>
@@ -24147,7 +24201,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="322" spans="1:27">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>89</v>
       </c>
@@ -24227,7 +24281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="323" spans="1:27">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>89</v>
       </c>
@@ -24292,7 +24346,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="324" spans="1:27">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>89</v>
       </c>
@@ -24357,7 +24411,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="325" spans="1:27">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>89</v>
       </c>
@@ -24422,7 +24476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:27">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>89</v>
       </c>
@@ -24487,7 +24541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="327" spans="1:27">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>89</v>
       </c>
@@ -24564,7 +24618,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="328" spans="1:27">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>89</v>
       </c>
@@ -24644,7 +24698,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="329" spans="1:27">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>89</v>
       </c>
@@ -24724,7 +24778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:27">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>89</v>
       </c>
@@ -24789,7 +24843,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="331" spans="1:27">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>89</v>
       </c>
@@ -24866,7 +24920,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="332" spans="1:27">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>89</v>
       </c>
@@ -24943,7 +24997,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="333" spans="1:27">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>89</v>
       </c>
@@ -25023,7 +25077,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="334" spans="1:27">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>89</v>
       </c>
@@ -25103,7 +25157,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="335" spans="1:27">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>89</v>
       </c>
@@ -25180,7 +25234,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="336" spans="1:27">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>89</v>
       </c>
@@ -25257,7 +25311,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="337" spans="1:27">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>89</v>
       </c>
@@ -25337,7 +25391,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="338" spans="1:27">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>89</v>
       </c>
@@ -25417,7 +25471,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="339" spans="1:27">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>89</v>
       </c>
@@ -25494,7 +25548,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="340" spans="1:27">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>89</v>
       </c>
@@ -25571,7 +25625,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="341" spans="1:27">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>89</v>
       </c>
@@ -25648,7 +25702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="342" spans="1:27">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>89</v>
       </c>
@@ -25725,7 +25779,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="343" spans="1:27">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>89</v>
       </c>
@@ -25805,7 +25859,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="344" spans="1:27">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>89</v>
       </c>
@@ -25882,7 +25936,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="345" spans="1:27">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>89</v>
       </c>
@@ -25962,7 +26016,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="346" spans="1:27">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>89</v>
       </c>
@@ -26042,7 +26096,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="347" spans="1:27">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>89</v>
       </c>
@@ -26122,7 +26176,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="348" spans="1:27">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>89</v>
       </c>
@@ -26202,7 +26256,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="349" spans="1:27">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>89</v>
       </c>
@@ -26279,7 +26333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="350" spans="1:27">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>89</v>
       </c>
@@ -26356,7 +26410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="351" spans="1:27">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>89</v>
       </c>
@@ -26421,7 +26475,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="352" spans="1:27">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>89</v>
       </c>
@@ -26498,7 +26552,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="353" spans="1:27">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>89</v>
       </c>
@@ -26578,7 +26632,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="354" spans="1:27">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>89</v>
       </c>
@@ -26658,7 +26712,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="355" spans="1:27">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>89</v>
       </c>
@@ -26735,7 +26789,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="356" spans="1:27">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>89</v>
       </c>
@@ -26812,7 +26866,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="357" spans="1:27">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>89</v>
       </c>
@@ -26889,7 +26943,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="358" spans="1:27">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>89</v>
       </c>
@@ -26969,7 +27023,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="359" spans="1:27">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>89</v>
       </c>
@@ -27049,7 +27103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="360" spans="1:27">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>89</v>
       </c>
@@ -27126,7 +27180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:27">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>89</v>
       </c>
@@ -27191,7 +27245,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="362" spans="1:27">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>89</v>
       </c>
@@ -27256,7 +27310,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="363" spans="1:27">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>89</v>
       </c>
@@ -27321,7 +27375,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="364" spans="1:27">
+    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>89</v>
       </c>
@@ -27386,7 +27440,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="365" spans="1:27">
+    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>89</v>
       </c>
@@ -27462,7 +27516,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27474,7 +27528,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
